--- a/power_module/Gears.xlsx
+++ b/power_module/Gears.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hibik\Documents\Robomech\conveyer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hibik\Documents\Robomech\conveyer\power_module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F868704-5EE8-43E8-95E0-17BEB8648E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04286DCA-4131-471A-8DF1-B44E3B5AE527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F244A947-A20A-434D-8B65-EC45C6F525E7}"/>
+    <workbookView xWindow="7215" yWindow="375" windowWidth="14610" windowHeight="15585" xr2:uid="{F244A947-A20A-434D-8B65-EC45C6F525E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>ギアの設計</t>
     <rPh sb="3" eb="5">
@@ -183,6 +183,67 @@
   </si>
   <si>
     <t>ピッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軸角</t>
+    <rPh sb="0" eb="1">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Σ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X_b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>δ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h_f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h_a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円錐距離</t>
+    <rPh sb="0" eb="4">
+      <t>エンスイキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>θ_a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -220,12 +281,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -234,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +321,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -262,6 +341,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>30155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0EF200-255F-7950-EB5B-34243CAE5C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="8486775"/>
+          <a:ext cx="2228850" cy="2973380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F14875F-5054-4A50-89B7-D6A63DD09A54}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1197,8 +1325,125 @@
       <c r="E32" s="3"/>
       <c r="H32" s="2"/>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="4">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34">
+        <f>F33*C34</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="4">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <f>1.25*C34</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <f>1*C34</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38">
+        <f>F34/(2*SIN(F35))</f>
+        <v>31.81980515339464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39">
+        <f>F38*COS(F35)-F37*SIN(F35)</f>
+        <v>20.378679656440362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40">
+        <f>ATAN(F37/F38)</f>
+        <v>9.4003033807576977E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41">
+        <f>(F38/3*COS(F35))/COS(F35)</f>
+        <v>10.606601717798213</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/power_module/Gears.xlsx
+++ b/power_module/Gears.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hibik\Documents\Robomech\conveyer\power_module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04286DCA-4131-471A-8DF1-B44E3B5AE527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357C50B3-E626-40CA-8D93-FAB2B6D14AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="375" windowWidth="14610" windowHeight="15585" xr2:uid="{F244A947-A20A-434D-8B65-EC45C6F525E7}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F244A947-A20A-434D-8B65-EC45C6F525E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F14875F-5054-4A50-89B7-D6A63DD09A54}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1323,9 +1323,15 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="E32" s="3"/>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
@@ -1342,10 +1348,13 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1363,10 +1372,14 @@
       </c>
       <c r="F34">
         <f>F33*C34</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <f>G33*C34</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
@@ -1380,11 +1393,15 @@
         <v>28</v>
       </c>
       <c r="F35">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+        <f>ATAN(SIN(1/2*PI())/(G33/F33+COS(1/2*PI())))</f>
+        <v>0.42662749312687609</v>
+      </c>
+      <c r="G35">
+        <f>1/2 * PI() - F35</f>
+        <v>1.1441688336680205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E36" t="s">
         <v>29</v>
       </c>
@@ -1392,8 +1409,12 @@
         <f>1.25*C34</f>
         <v>3.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G36">
+        <f>1.25*C34</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
         <v>30</v>
       </c>
@@ -1402,7 +1423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
         <v>32</v>
       </c>
@@ -1411,34 +1432,34 @@
       </c>
       <c r="F38">
         <f>F34/(2*SIN(F35))</f>
-        <v>31.81980515339464</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+        <v>36.249137920783717</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E39" t="s">
         <v>26</v>
       </c>
       <c r="F39">
         <f>F38*COS(F35)-F37*SIN(F35)</f>
-        <v>20.378679656440362</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+        <v>31.758591167096448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E40" t="s">
         <v>33</v>
       </c>
       <c r="F40">
         <f>ATAN(F37/F38)</f>
-        <v>9.4003033807576977E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+        <v>8.2572410476699346E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E41" t="s">
         <v>27</v>
       </c>
       <c r="F41">
         <f>(F38/3*COS(F35))/COS(F35)</f>
-        <v>10.606601717798213</v>
+        <v>12.083045973594571</v>
       </c>
     </row>
   </sheetData>
